--- a/Test Case - 5/TC5_Results_E.xlsx
+++ b/Test Case - 5/TC5_Results_E.xlsx
@@ -1070,17 +1070,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1088,7 +1086,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R110" sqref="R110"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,46 +1663,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
@@ -1721,16 +1721,16 @@
       <c r="G2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="11" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7161,17 +7161,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M110">
     <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
@@ -7262,7 +7262,7 @@
   <dimension ref="A1:AA122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7273,50 +7273,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>134</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="15" t="s">
         <v>141</v>
       </c>
       <c r="V1" s="3"/>
@@ -7324,7 +7324,7 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
@@ -7343,19 +7343,19 @@
       <c r="G2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="14"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="15"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="AA2"/>
@@ -10679,10 +10679,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K52" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L52" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>130</v>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="S52" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="b">
         <f t="shared" si="3"/>
@@ -10750,10 +10750,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K53" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L53" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>130</v>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="S53" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="b">
         <f t="shared" si="3"/>
@@ -10821,10 +10821,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K54" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L54" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>130</v>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="S54" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T54" t="b">
         <f t="shared" si="3"/>
@@ -10892,10 +10892,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K55" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L55" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>130</v>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="S55" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="b">
         <f t="shared" si="3"/>
@@ -11034,10 +11034,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K57" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L57" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>130</v>
@@ -11060,7 +11060,7 @@
       </c>
       <c r="S57" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="b">
         <f t="shared" si="3"/>
@@ -11105,10 +11105,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K58" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L58" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>130</v>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="S58" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="b">
         <f t="shared" si="3"/>
@@ -11247,10 +11247,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K60" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L60" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>130</v>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="S60" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="b">
         <f t="shared" si="3"/>
@@ -11318,10 +11318,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K61" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L61" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>130</v>
@@ -11344,7 +11344,7 @@
       </c>
       <c r="S61" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="b">
         <f t="shared" si="3"/>
@@ -11389,10 +11389,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K62" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L62" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>130</v>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="S62" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="b">
         <f t="shared" si="3"/>
@@ -11460,10 +11460,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K63" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L63" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>130</v>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="S63" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="b">
         <f t="shared" si="3"/>
@@ -11602,10 +11602,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K65" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L65" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>130</v>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="S65" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="b">
         <f t="shared" si="3"/>
@@ -11673,10 +11673,10 @@
         <v>10.0853105804721</v>
       </c>
       <c r="K66" s="2">
-        <v>12.005231732000899</v>
+        <v>10.101378546253599</v>
       </c>
       <c r="L66" s="2">
-        <v>5.2066120410180003</v>
+        <v>4.3809199475601899</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>130</v>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="S66" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" t="b">
         <f t="shared" si="3"/>
@@ -11744,10 +11744,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K67" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L67" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>130</v>
@@ -11770,11 +11770,11 @@
       </c>
       <c r="S67" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="2" t="s">
         <v>143</v>
@@ -11886,10 +11886,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K69" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L69" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>130</v>
@@ -11912,11 +11912,11 @@
       </c>
       <c r="S69" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" s="2" t="s">
         <v>143</v>
@@ -12028,10 +12028,10 @@
         <v>12.7086193526413</v>
       </c>
       <c r="K71" s="2">
-        <v>10.5876525088878</v>
+        <v>12.7086193526413</v>
       </c>
       <c r="L71" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3751281734319099</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>130</v>
@@ -12054,11 +12054,11 @@
       </c>
       <c r="S71" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="2" t="s">
         <v>142</v>
@@ -12099,10 +12099,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K72" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L72" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>130</v>
@@ -12125,11 +12125,11 @@
       </c>
       <c r="S72" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="2" t="s">
         <v>143</v>
@@ -12170,10 +12170,10 @@
         <v>12.7086193526413</v>
       </c>
       <c r="K73" s="2">
-        <v>10.5876525088878</v>
+        <v>12.7086193526413</v>
       </c>
       <c r="L73" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3751281734319099</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>130</v>
@@ -12196,11 +12196,11 @@
       </c>
       <c r="S73" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" s="2" t="s">
         <v>142</v>
@@ -12312,10 +12312,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K75" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L75" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>130</v>
@@ -12338,11 +12338,11 @@
       </c>
       <c r="S75" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="2" t="s">
         <v>143</v>
@@ -12454,10 +12454,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K77" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L77" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>130</v>
@@ -12480,11 +12480,11 @@
       </c>
       <c r="S77" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" s="2" t="s">
         <v>143</v>
@@ -12525,10 +12525,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K78" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L78" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>130</v>
@@ -12551,11 +12551,11 @@
       </c>
       <c r="S78" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" s="2" t="s">
         <v>143</v>
@@ -12667,10 +12667,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K80" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L80" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>130</v>
@@ -12693,11 +12693,11 @@
       </c>
       <c r="S80" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>143</v>
@@ -12809,10 +12809,10 @@
         <v>12.7086193526413</v>
       </c>
       <c r="K82" s="2">
-        <v>10.5876525088878</v>
+        <v>12.7086193526413</v>
       </c>
       <c r="L82" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3751281734319099</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>130</v>
@@ -12835,11 +12835,11 @@
       </c>
       <c r="S82" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" s="2" t="s">
         <v>142</v>
@@ -12880,10 +12880,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K83" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L83" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>130</v>
@@ -12906,11 +12906,11 @@
       </c>
       <c r="S83" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="2" t="s">
         <v>143</v>
@@ -12951,10 +12951,10 @@
         <v>12.7086193526413</v>
       </c>
       <c r="K84" s="2">
-        <v>10.5876525088878</v>
+        <v>12.7086193526413</v>
       </c>
       <c r="L84" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3751281734319099</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>130</v>
@@ -12977,11 +12977,11 @@
       </c>
       <c r="S84" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" s="2" t="s">
         <v>142</v>
@@ -13093,10 +13093,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K86" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L86" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>130</v>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="S86" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86" s="2" t="s">
         <v>143</v>
@@ -13235,10 +13235,10 @@
         <v>12.7031626622224</v>
       </c>
       <c r="K88" s="2">
-        <v>10.583106496421699</v>
+        <v>12.712999253217401</v>
       </c>
       <c r="L88" s="2">
-        <v>5.3111703110290698</v>
+        <v>6.3800647022358303</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>130</v>
@@ -13261,11 +13261,11 @@
       </c>
       <c r="S88" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" s="2" t="s">
         <v>143</v>
@@ -13377,10 +13377,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K90" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L90" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>130</v>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="S90" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="b">
         <f t="shared" si="6"/>
@@ -13448,10 +13448,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K91" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L91" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>130</v>
@@ -13474,7 +13474,7 @@
       </c>
       <c r="S91" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91" t="b">
         <f t="shared" si="6"/>
@@ -13519,10 +13519,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K92" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L92" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>130</v>
@@ -13545,11 +13545,11 @@
       </c>
       <c r="S92" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92" s="2" t="s">
         <v>142</v>
@@ -13590,10 +13590,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K93" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L93" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>130</v>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="S93" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93" t="b">
         <f t="shared" si="6"/>
@@ -13661,10 +13661,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K94" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L94" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>130</v>
@@ -13687,7 +13687,7 @@
       </c>
       <c r="S94" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94" t="b">
         <f t="shared" si="6"/>
@@ -13732,10 +13732,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K95" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L95" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>130</v>
@@ -13758,11 +13758,11 @@
       </c>
       <c r="S95" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>142</v>
@@ -13803,10 +13803,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K96" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L96" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>130</v>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="S96" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="b">
         <f t="shared" si="6"/>
@@ -13874,10 +13874,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K97" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L97" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>130</v>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="S97" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97" t="b">
         <f t="shared" si="6"/>
@@ -14016,10 +14016,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K99" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L99" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>130</v>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="S99" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99" t="b">
         <f t="shared" si="6"/>
@@ -14087,10 +14087,10 @@
         <v>14.990997475539499</v>
       </c>
       <c r="K100" s="2">
-        <v>9.3519892890220095</v>
+        <v>14.997673134115701</v>
       </c>
       <c r="L100" s="2">
-        <v>5.6092682076984204</v>
+        <v>8.9955161945492392</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>130</v>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="S100" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="b">
         <f t="shared" si="6"/>
@@ -14229,10 +14229,10 @@
         <v>16.7511617101915</v>
       </c>
       <c r="K102" s="2">
-        <v>8.9451565179695702</v>
+        <v>16.756755326080299</v>
       </c>
       <c r="L102" s="2">
-        <v>5.8534464843330296</v>
+        <v>10.965126250752</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>130</v>
@@ -14255,7 +14255,7 @@
       </c>
       <c r="S102" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" t="b">
         <f t="shared" si="6"/>
@@ -14371,10 +14371,10 @@
         <v>16.7511617101915</v>
       </c>
       <c r="K104" s="2">
-        <v>8.9451565179695702</v>
+        <v>16.756755326080299</v>
       </c>
       <c r="L104" s="2">
-        <v>5.8534464843330296</v>
+        <v>10.965126250752</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>130</v>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="S104" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="b">
         <f t="shared" si="6"/>
@@ -14442,10 +14442,10 @@
         <v>16.7511617101915</v>
       </c>
       <c r="K105" s="2">
-        <v>8.9451565179695702</v>
+        <v>16.756755326080299</v>
       </c>
       <c r="L105" s="2">
-        <v>5.8534464843330296</v>
+        <v>10.965126250752</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>130</v>
@@ -14468,7 +14468,7 @@
       </c>
       <c r="S105" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T105" t="b">
         <f t="shared" si="6"/>
@@ -14584,10 +14584,10 @@
         <v>16.7511617101915</v>
       </c>
       <c r="K107" s="2">
-        <v>8.9451565179695702</v>
+        <v>16.756755326080299</v>
       </c>
       <c r="L107" s="2">
-        <v>5.8534464843330296</v>
+        <v>10.965126250752</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>130</v>
@@ -14610,7 +14610,7 @@
       </c>
       <c r="S107" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107" t="b">
         <f t="shared" si="6"/>
@@ -14726,10 +14726,10 @@
         <v>16.7511617101915</v>
       </c>
       <c r="K109" s="2">
-        <v>8.9451565179695702</v>
+        <v>16.756755326080299</v>
       </c>
       <c r="L109" s="2">
-        <v>5.8534464843330296</v>
+        <v>10.965126250752</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>130</v>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="S109" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T109" t="b">
         <f t="shared" si="6"/>
@@ -14797,10 +14797,10 @@
         <v>16.7511617101915</v>
       </c>
       <c r="K110" s="2">
-        <v>8.9451565179695702</v>
+        <v>16.756755326080299</v>
       </c>
       <c r="L110" s="2">
-        <v>5.8534464843330296</v>
+        <v>10.965126250752</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>130</v>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="S110" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T110" t="b">
         <f t="shared" si="6"/>
@@ -14939,10 +14939,10 @@
         <v>18.363729223026699</v>
       </c>
       <c r="K112" s="2">
-        <v>9.4358298522203796</v>
+        <v>18.369536607290499</v>
       </c>
       <c r="L112" s="2">
-        <v>6.2675818651956998</v>
+        <v>12.2016374092216</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>130</v>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="S112" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T112" t="b">
         <f t="shared" si="6"/>
@@ -15081,10 +15081,10 @@
         <v>18.363729223026699</v>
       </c>
       <c r="K114" s="2">
-        <v>9.4358298522203796</v>
+        <v>18.369536607290499</v>
       </c>
       <c r="L114" s="2">
-        <v>6.2675818651956998</v>
+        <v>12.2016374092216</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>130</v>
@@ -15107,7 +15107,7 @@
       </c>
       <c r="S114" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T114" t="b">
         <f t="shared" si="6"/>
@@ -15152,10 +15152,10 @@
         <v>18.363729223026699</v>
       </c>
       <c r="K115" s="2">
-        <v>9.4358298522203796</v>
+        <v>18.369536607290499</v>
       </c>
       <c r="L115" s="2">
-        <v>6.2675818651956998</v>
+        <v>12.2016374092216</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>130</v>
@@ -15178,7 +15178,7 @@
       </c>
       <c r="S115" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T115" t="b">
         <f t="shared" si="6"/>
@@ -15294,10 +15294,10 @@
         <v>18.363729223026699</v>
       </c>
       <c r="K117" s="2">
-        <v>9.4358298522203796</v>
+        <v>18.369536607290499</v>
       </c>
       <c r="L117" s="2">
-        <v>6.2675818651956998</v>
+        <v>12.2016374092216</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>130</v>
@@ -15320,7 +15320,7 @@
       </c>
       <c r="S117" t="b">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T117" t="b">
         <f t="shared" si="6"/>
@@ -15360,12 +15360,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M2"/>
@@ -15373,6 +15367,12 @@
     <mergeCell ref="P1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="R3:R117 T3:T117 U4:U118">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -15517,7 +15517,7 @@
       <c r="A6" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C6" t="s">

--- a/Test Case - 5/TC5_Results_E.xlsx
+++ b/Test Case - 5/TC5_Results_E.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="166">
   <si>
     <t>55412b22-5d4f-44d0-b1e5-c6254c311718</t>
   </si>
@@ -455,12 +455,6 @@
     <t>BRL</t>
   </si>
   <si>
-    <t>HVL5SL</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Level/Sub-Level</t>
   </si>
   <si>
@@ -522,6 +516,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 'Level 0']</t>
+  </si>
+  <si>
+    <t>e13ad3db-4af8-475a-9f54-1e97dab91636</t>
   </si>
 </sst>
 </file>
@@ -1072,22 +1069,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1653,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,46 +1660,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
@@ -1721,16 +1718,16 @@
       <c r="G2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="12" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6250,7 +6247,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6297,7 +6294,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6344,7 +6341,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6438,7 +6435,7 @@
         <v>285.15199999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6485,7 +6482,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6532,7 +6529,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6579,7 +6576,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6626,7 +6623,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6673,7 +6670,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6720,7 +6717,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6767,7 +6764,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6814,7 +6811,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6861,7 +6858,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6908,7 +6905,7 @@
         <v>300.15199999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6945,8 +6942,11 @@
       <c r="L111" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6983,8 +6983,11 @@
       <c r="L112" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7018,8 +7021,11 @@
       <c r="L113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7053,8 +7059,11 @@
       <c r="L114" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7088,8 +7097,11 @@
       <c r="L115" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7123,8 +7135,11 @@
       <c r="L116" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P116" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7158,20 +7173,23 @@
       <c r="L117" t="b">
         <v>1</v>
       </c>
+      <c r="P117" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="M3:M110">
     <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
@@ -7259,10 +7277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA122"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="U118" sqref="U118:U122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7273,50 +7291,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>141</v>
       </c>
       <c r="V1" s="3"/>
@@ -7324,7 +7342,7 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="2" t="s">
         <v>126</v>
       </c>
@@ -7343,19 +7361,19 @@
       <c r="G2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="15"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="13"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="AA2"/>
@@ -7389,10 +7407,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J3" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K3" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -7403,7 +7421,7 @@
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>129</v>
@@ -7456,10 +7474,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J4" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K4" s="2">
-        <v>4.94126252038168</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -7470,7 +7488,7 @@
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2">
-        <v>4.94126252038168</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>130</v>
@@ -7523,10 +7541,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J5" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K5" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -7537,7 +7555,7 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>130</v>
@@ -7590,10 +7608,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J6" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K6" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
@@ -7604,7 +7622,7 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>129</v>
@@ -7657,10 +7675,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J7" s="7">
-        <v>1.2050000000000001</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K7" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -7671,22 +7689,22 @@
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>129</v>
       </c>
       <c r="R7" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>129</v>
@@ -7724,10 +7742,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J8" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K8" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
@@ -7738,7 +7756,7 @@
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>130</v>
@@ -7791,10 +7809,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J9" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K9" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L9" s="2">
         <v>1</v>
@@ -7805,7 +7823,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>130</v>
@@ -7858,10 +7876,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J10" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K10" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L10" s="2">
         <v>1</v>
@@ -7872,7 +7890,7 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>130</v>
@@ -7925,10 +7943,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J11" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K11" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L11" s="2">
         <v>1</v>
@@ -7939,7 +7957,7 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>130</v>
@@ -7992,10 +8010,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J12" s="7">
-        <v>1.2050000000000001</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K12" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L12" s="2">
         <v>1</v>
@@ -8006,22 +8024,22 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>129</v>
       </c>
       <c r="R12" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>129</v>
@@ -8059,10 +8077,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J13" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K13" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -8073,7 +8091,7 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>129</v>
@@ -8126,10 +8144,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J14" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K14" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -8140,7 +8158,7 @@
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>130</v>
@@ -8193,10 +8211,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J15" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K15" s="2">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -8207,7 +8225,7 @@
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>130</v>
@@ -8260,10 +8278,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J16" s="7">
-        <v>1.2050000000000001</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K16" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -8274,22 +8292,22 @@
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>129</v>
       </c>
       <c r="R16" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>129</v>
@@ -8327,10 +8345,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J17" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K17" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -8341,7 +8359,7 @@
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>129</v>
@@ -8394,10 +8412,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J18" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K18" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -8408,7 +8426,7 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>130</v>
@@ -8461,10 +8479,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J19" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K19" s="2">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -8475,7 +8493,7 @@
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>130</v>
@@ -8528,10 +8546,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J20" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K20" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -8542,7 +8560,7 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>129</v>
@@ -8595,10 +8613,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J21" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K21" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -8609,7 +8627,7 @@
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>130</v>
@@ -8662,10 +8680,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J22" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K22" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
@@ -8676,7 +8694,7 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>130</v>
@@ -8729,10 +8747,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J23" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K23" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L23" s="2">
         <v>1</v>
@@ -8743,7 +8761,7 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q23" s="2" t="s">
         <v>129</v>
@@ -8796,10 +8814,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J24" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K24" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L24" s="2">
         <v>1</v>
@@ -8810,7 +8828,7 @@
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>129</v>
@@ -8863,10 +8881,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J25" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K25" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -8877,7 +8895,7 @@
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>130</v>
@@ -8930,10 +8948,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J26" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K26" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L26" s="2">
         <v>1</v>
@@ -8944,7 +8962,7 @@
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>130</v>
@@ -8997,10 +9015,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J27" s="7">
-        <v>1.2050000000000001</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K27" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L27" s="2">
         <v>1</v>
@@ -9011,22 +9029,22 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>129</v>
       </c>
       <c r="R27" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" s="2" t="s">
         <v>129</v>
@@ -9064,10 +9082,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J28" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K28" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L28" s="2">
         <v>1</v>
@@ -9078,7 +9096,7 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>129</v>
@@ -9131,10 +9149,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J29" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K29" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L29" s="2">
         <v>1</v>
@@ -9145,7 +9163,7 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>130</v>
@@ -9198,10 +9216,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J30" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K30" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -9212,7 +9230,7 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>129</v>
@@ -9265,10 +9283,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J31" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K31" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -9279,7 +9297,7 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>130</v>
@@ -9332,10 +9350,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J32" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K32" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -9346,7 +9364,7 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>130</v>
@@ -9399,10 +9417,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J33" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K33" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L33" s="2">
         <v>1</v>
@@ -9413,7 +9431,7 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>129</v>
@@ -9466,10 +9484,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J34" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K34" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L34" s="2">
         <v>1</v>
@@ -9480,7 +9498,7 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>130</v>
@@ -9533,10 +9551,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J35" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K35" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L35" s="2">
         <v>1</v>
@@ -9547,7 +9565,7 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>130</v>
@@ -9600,10 +9618,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J36" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K36" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -9614,7 +9632,7 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>129</v>
@@ -9667,10 +9685,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J37" s="7">
-        <v>1.2050000000000001</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K37" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -9681,22 +9699,22 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>129</v>
       </c>
       <c r="R37" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>129</v>
@@ -9734,10 +9752,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J38" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K38" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L38" s="2">
         <v>1</v>
@@ -9748,7 +9766,7 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>130</v>
@@ -9801,10 +9819,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J39" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K39" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
@@ -9815,7 +9833,7 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>130</v>
@@ -9868,10 +9886,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J40" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K40" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L40" s="2">
         <v>1</v>
@@ -9882,7 +9900,7 @@
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q40" s="2" t="s">
         <v>130</v>
@@ -9935,10 +9953,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J41" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K41" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L41" s="2">
         <v>1</v>
@@ -9949,7 +9967,7 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>130</v>
@@ -10002,10 +10020,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J42" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K42" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L42" s="2">
         <v>1</v>
@@ -10016,7 +10034,7 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>129</v>
@@ -10069,10 +10087,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J43" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K43" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L43" s="2">
         <v>1</v>
@@ -10083,7 +10101,7 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>129</v>
@@ -10136,10 +10154,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J44" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K44" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L44" s="2">
         <v>1</v>
@@ -10150,7 +10168,7 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>130</v>
@@ -10203,10 +10221,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J45" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K45" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L45" s="2">
         <v>1</v>
@@ -10217,7 +10235,7 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>130</v>
@@ -10270,10 +10288,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J46" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K46" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L46" s="2">
         <v>1</v>
@@ -10284,7 +10302,7 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>129</v>
@@ -10337,10 +10355,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J47" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K47" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L47" s="2">
         <v>1</v>
@@ -10351,7 +10369,7 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>130</v>
@@ -10404,10 +10422,10 @@
         <v>11.692523359999999</v>
       </c>
       <c r="J48" s="5">
-        <v>11.690933824353699</v>
+        <v>11.6910272940284</v>
       </c>
       <c r="K48" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="L48" s="2">
         <v>1</v>
@@ -10418,7 +10436,7 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2">
-        <v>11.7125953001625</v>
+        <v>11.712688959221</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>129</v>
@@ -10471,10 +10489,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J49" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K49" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L49" s="2">
         <v>1</v>
@@ -10485,7 +10503,7 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>130</v>
@@ -10538,10 +10556,10 @@
         <v>4.9397057980000003</v>
       </c>
       <c r="J50" s="5">
-        <v>4.9391201273723597</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="K50" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="L50" s="2">
         <v>1</v>
@@ -10552,7 +10570,7 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2">
-        <v>4.9445456283948603</v>
+        <v>4.9391545666722898</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>130</v>
@@ -10605,13 +10623,13 @@
         <v>17.89380542</v>
       </c>
       <c r="J51" s="5">
-        <v>18.365975809799199</v>
+        <v>17.882281416679799</v>
       </c>
       <c r="K51" s="2">
-        <v>18.415756278407098</v>
+        <v>17.930591971124599</v>
       </c>
       <c r="L51" s="2">
-        <v>9.2793000573809206</v>
+        <v>9.0347746813308003</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>129</v>
@@ -10623,7 +10641,7 @@
         <v>131</v>
       </c>
       <c r="P51" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>132</v>
@@ -10676,13 +10694,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J52" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K52" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L52" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>130</v>
@@ -10694,7 +10712,7 @@
         <v>133</v>
       </c>
       <c r="P52" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>132</v>
@@ -10747,13 +10765,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J53" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K53" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L53" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>130</v>
@@ -10765,7 +10783,7 @@
         <v>133</v>
       </c>
       <c r="P53" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>132</v>
@@ -10818,13 +10836,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J54" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K54" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L54" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>130</v>
@@ -10836,7 +10854,7 @@
         <v>133</v>
       </c>
       <c r="P54" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>132</v>
@@ -10889,13 +10907,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J55" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K55" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L55" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>130</v>
@@ -10907,7 +10925,7 @@
         <v>133</v>
       </c>
       <c r="P55" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q55" s="2" t="s">
         <v>132</v>
@@ -10960,13 +10978,13 @@
         <v>17.89380542</v>
       </c>
       <c r="J56" s="5">
-        <v>18.365975809799199</v>
+        <v>17.882281416679799</v>
       </c>
       <c r="K56" s="2">
-        <v>18.415756278407098</v>
+        <v>17.930591971124599</v>
       </c>
       <c r="L56" s="2">
-        <v>9.2793000573809206</v>
+        <v>9.0347746813308003</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>129</v>
@@ -10978,7 +10996,7 @@
         <v>131</v>
       </c>
       <c r="P56" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>132</v>
@@ -11031,13 +11049,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J57" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K57" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L57" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>130</v>
@@ -11049,7 +11067,7 @@
         <v>133</v>
       </c>
       <c r="P57" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>132</v>
@@ -11102,13 +11120,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J58" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K58" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L58" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>130</v>
@@ -11120,7 +11138,7 @@
         <v>133</v>
       </c>
       <c r="P58" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>132</v>
@@ -11173,13 +11191,13 @@
         <v>17.89380542</v>
       </c>
       <c r="J59" s="5">
-        <v>18.365975809799199</v>
+        <v>17.882281416679799</v>
       </c>
       <c r="K59" s="2">
-        <v>18.415756278407098</v>
+        <v>17.930591971124599</v>
       </c>
       <c r="L59" s="2">
-        <v>9.2793000573809206</v>
+        <v>9.0347746813308003</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>129</v>
@@ -11191,7 +11209,7 @@
         <v>131</v>
       </c>
       <c r="P59" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>132</v>
@@ -11244,13 +11262,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J60" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K60" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L60" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>130</v>
@@ -11262,7 +11280,7 @@
         <v>133</v>
       </c>
       <c r="P60" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>132</v>
@@ -11315,13 +11333,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J61" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K61" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L61" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>130</v>
@@ -11333,7 +11351,7 @@
         <v>133</v>
       </c>
       <c r="P61" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q61" s="2" t="s">
         <v>132</v>
@@ -11386,13 +11404,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J62" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K62" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L62" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>130</v>
@@ -11404,7 +11422,7 @@
         <v>133</v>
       </c>
       <c r="P62" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q62" s="2" t="s">
         <v>132</v>
@@ -11457,13 +11475,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J63" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K63" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L63" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>130</v>
@@ -11475,7 +11493,7 @@
         <v>133</v>
       </c>
       <c r="P63" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>132</v>
@@ -11528,13 +11546,13 @@
         <v>17.89380542</v>
       </c>
       <c r="J64" s="5">
-        <v>18.365975809799199</v>
+        <v>17.882281416679799</v>
       </c>
       <c r="K64" s="2">
-        <v>18.415756278407098</v>
+        <v>17.930591971124599</v>
       </c>
       <c r="L64" s="2">
-        <v>9.2793000573809206</v>
+        <v>9.0347746813308003</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>129</v>
@@ -11546,7 +11564,7 @@
         <v>131</v>
       </c>
       <c r="P64" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>132</v>
@@ -11599,13 +11617,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J65" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K65" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L65" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>130</v>
@@ -11617,7 +11635,7 @@
         <v>133</v>
       </c>
       <c r="P65" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q65" s="2" t="s">
         <v>132</v>
@@ -11670,13 +11688,13 @@
         <v>9.8618269359999999</v>
       </c>
       <c r="J66" s="5">
-        <v>10.0853105804721</v>
+        <v>9.8556124754405392</v>
       </c>
       <c r="K66" s="2">
-        <v>10.101378546253599</v>
+        <v>9.8712059874627105</v>
       </c>
       <c r="L66" s="2">
-        <v>4.3809199475601899</v>
+        <v>4.2810660087196197</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>130</v>
@@ -11688,7 +11706,7 @@
         <v>133</v>
       </c>
       <c r="P66" s="2">
-        <v>1.64697608642666</v>
+        <v>1.6469873170035401</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>132</v>
@@ -11741,13 +11759,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J67" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K67" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L67" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>130</v>
@@ -11759,14 +11777,14 @@
         <v>133</v>
       </c>
       <c r="P67" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R67" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S67" t="b">
         <f t="shared" si="2"/>
@@ -11812,13 +11830,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J68" s="5">
-        <v>29.4716886677937</v>
+        <v>27.998464882047099</v>
       </c>
       <c r="K68" s="2">
-        <v>29.509184613709898</v>
+        <v>28.033970687201201</v>
       </c>
       <c r="L68" s="2">
-        <v>17.205815427082001</v>
+        <v>16.345754599925002</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>129</v>
@@ -11830,14 +11848,14 @@
         <v>131</v>
       </c>
       <c r="P68" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q68" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R68" t="b">
         <f t="shared" ref="R68:R117" si="4">IF(AND(I68&gt;(J68*0.96),I68&lt;(J68*1.04)),TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" t="b">
         <f t="shared" ref="S68:S117" si="5">IF(AND(K68&gt;(J68*0.96),K68&lt;(J68*1.04)),TRUE,FALSE)</f>
@@ -11883,13 +11901,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J69" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K69" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L69" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>130</v>
@@ -11901,14 +11919,14 @@
         <v>133</v>
       </c>
       <c r="P69" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R69" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" t="b">
         <f t="shared" si="5"/>
@@ -11954,13 +11972,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J70" s="5">
-        <v>29.4716886677937</v>
+        <v>27.998464882047099</v>
       </c>
       <c r="K70" s="2">
-        <v>29.509184613709898</v>
+        <v>28.033970687201201</v>
       </c>
       <c r="L70" s="2">
-        <v>17.205815427082001</v>
+        <v>16.345754599925002</v>
       </c>
       <c r="M70" s="2" t="s">
         <v>129</v>
@@ -11972,14 +11990,14 @@
         <v>131</v>
       </c>
       <c r="P70" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R70" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70" t="b">
         <f t="shared" si="5"/>
@@ -12025,13 +12043,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J71" s="5">
-        <v>12.7086193526413</v>
+        <v>12.1398900953251</v>
       </c>
       <c r="K71" s="2">
-        <v>12.7086193526413</v>
+        <v>12.1398900953251</v>
       </c>
       <c r="L71" s="2">
-        <v>6.3751281734319099</v>
+        <v>6.0898640839007303</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>130</v>
@@ -12043,7 +12061,7 @@
         <v>133</v>
       </c>
       <c r="P71" s="2">
-        <v>1.4239063129298499</v>
+        <v>1.4238987847057401</v>
       </c>
       <c r="Q71" s="2" t="s">
         <v>132</v>
@@ -12096,13 +12114,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J72" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K72" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L72" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>130</v>
@@ -12114,14 +12132,14 @@
         <v>133</v>
       </c>
       <c r="P72" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R72" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" t="b">
         <f t="shared" si="5"/>
@@ -12167,13 +12185,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J73" s="5">
-        <v>12.7086193526413</v>
+        <v>12.1398900953251</v>
       </c>
       <c r="K73" s="2">
-        <v>12.7086193526413</v>
+        <v>12.1398900953251</v>
       </c>
       <c r="L73" s="2">
-        <v>6.3751281734319099</v>
+        <v>6.0898640839007303</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>130</v>
@@ -12185,7 +12203,7 @@
         <v>133</v>
       </c>
       <c r="P73" s="2">
-        <v>1.4239063129298499</v>
+        <v>1.4238987847057401</v>
       </c>
       <c r="Q73" s="2" t="s">
         <v>132</v>
@@ -12238,13 +12256,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J74" s="5">
-        <v>29.4716886677937</v>
+        <v>27.998464882047099</v>
       </c>
       <c r="K74" s="2">
-        <v>29.509184613709898</v>
+        <v>28.033970687201201</v>
       </c>
       <c r="L74" s="2">
-        <v>17.205815427082001</v>
+        <v>16.345754599925002</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>129</v>
@@ -12256,14 +12274,14 @@
         <v>131</v>
       </c>
       <c r="P74" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R74" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" t="b">
         <f t="shared" si="5"/>
@@ -12309,13 +12327,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J75" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K75" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L75" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>130</v>
@@ -12327,14 +12345,14 @@
         <v>133</v>
       </c>
       <c r="P75" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R75" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" t="b">
         <f t="shared" si="5"/>
@@ -12380,13 +12398,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J76" s="5">
-        <v>29.4716886677937</v>
+        <v>27.998464882047099</v>
       </c>
       <c r="K76" s="2">
-        <v>29.509184613709898</v>
+        <v>28.033970687201201</v>
       </c>
       <c r="L76" s="2">
-        <v>17.205815427082001</v>
+        <v>16.345754599925002</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>129</v>
@@ -12398,14 +12416,14 @@
         <v>131</v>
       </c>
       <c r="P76" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R76" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="b">
         <f t="shared" si="5"/>
@@ -12451,13 +12469,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J77" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K77" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L77" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>130</v>
@@ -12469,14 +12487,14 @@
         <v>133</v>
       </c>
       <c r="P77" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R77" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" t="b">
         <f t="shared" si="5"/>
@@ -12522,13 +12540,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J78" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K78" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L78" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>130</v>
@@ -12540,14 +12558,14 @@
         <v>133</v>
       </c>
       <c r="P78" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q78" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R78" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" t="b">
         <f t="shared" si="5"/>
@@ -12593,13 +12611,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J79" s="5">
-        <v>29.4716886677937</v>
+        <v>27.998464882047099</v>
       </c>
       <c r="K79" s="2">
-        <v>29.509184613709898</v>
+        <v>28.033970687201201</v>
       </c>
       <c r="L79" s="2">
-        <v>17.205815427082001</v>
+        <v>16.345754599925002</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>129</v>
@@ -12611,14 +12629,14 @@
         <v>131</v>
       </c>
       <c r="P79" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R79" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" t="b">
         <f t="shared" si="5"/>
@@ -12664,13 +12682,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J80" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K80" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L80" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>130</v>
@@ -12682,14 +12700,14 @@
         <v>133</v>
       </c>
       <c r="P80" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R80" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" t="b">
         <f t="shared" si="5"/>
@@ -12735,13 +12753,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J81" s="5">
-        <v>29.4716886677937</v>
+        <v>27.998464882047099</v>
       </c>
       <c r="K81" s="2">
-        <v>29.509184613709898</v>
+        <v>28.033970687201201</v>
       </c>
       <c r="L81" s="2">
-        <v>17.205815427082001</v>
+        <v>16.345754599925002</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>129</v>
@@ -12753,14 +12771,14 @@
         <v>131</v>
       </c>
       <c r="P81" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q81" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R81" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S81" t="b">
         <f t="shared" si="5"/>
@@ -12806,13 +12824,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J82" s="5">
-        <v>12.7086193526413</v>
+        <v>12.1398900953251</v>
       </c>
       <c r="K82" s="2">
-        <v>12.7086193526413</v>
+        <v>12.1398900953251</v>
       </c>
       <c r="L82" s="2">
-        <v>6.3751281734319099</v>
+        <v>6.0898640839007303</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>130</v>
@@ -12824,7 +12842,7 @@
         <v>133</v>
       </c>
       <c r="P82" s="2">
-        <v>1.4239063129298499</v>
+        <v>1.4238987847057401</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>132</v>
@@ -12877,13 +12895,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J83" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K83" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L83" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>130</v>
@@ -12895,14 +12913,14 @@
         <v>133</v>
       </c>
       <c r="P83" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q83" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R83" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="b">
         <f t="shared" si="5"/>
@@ -12948,13 +12966,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J84" s="5">
-        <v>12.7086193526413</v>
+        <v>12.1398900953251</v>
       </c>
       <c r="K84" s="2">
-        <v>12.7086193526413</v>
+        <v>12.1398900953251</v>
       </c>
       <c r="L84" s="2">
-        <v>6.3751281734319099</v>
+        <v>6.0898640839007303</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>130</v>
@@ -12966,7 +12984,7 @@
         <v>133</v>
       </c>
       <c r="P84" s="2">
-        <v>1.4239063129298499</v>
+        <v>1.4238987847057401</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>132</v>
@@ -13019,13 +13037,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J85" s="5">
-        <v>29.4716886677937</v>
+        <v>27.998464882047099</v>
       </c>
       <c r="K85" s="2">
-        <v>29.509184613709898</v>
+        <v>28.033970687201201</v>
       </c>
       <c r="L85" s="2">
-        <v>17.205815427082001</v>
+        <v>16.345754599925002</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>129</v>
@@ -13037,14 +13055,14 @@
         <v>131</v>
       </c>
       <c r="P85" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R85" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" t="b">
         <f t="shared" si="5"/>
@@ -13090,13 +13108,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J86" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K86" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L86" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>130</v>
@@ -13108,14 +13126,14 @@
         <v>133</v>
       </c>
       <c r="P86" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R86" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" t="b">
         <f t="shared" si="5"/>
@@ -13161,13 +13179,13 @@
         <v>28.01108515</v>
       </c>
       <c r="J87" s="5">
-        <v>29.4716886677937</v>
+        <v>27.998464882047099</v>
       </c>
       <c r="K87" s="2">
-        <v>29.509184613709898</v>
+        <v>28.033970687201201</v>
       </c>
       <c r="L87" s="2">
-        <v>17.205815427082001</v>
+        <v>16.345754599925002</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>129</v>
@@ -13179,14 +13197,14 @@
         <v>131</v>
       </c>
       <c r="P87" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R87" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" t="b">
         <f t="shared" si="5"/>
@@ -13232,13 +13250,13 @@
         <v>12.14000588</v>
       </c>
       <c r="J88" s="5">
-        <v>12.7031626622224</v>
+        <v>12.1346772321399</v>
       </c>
       <c r="K88" s="2">
-        <v>12.712999253217401</v>
+        <v>12.1439917346739</v>
       </c>
       <c r="L88" s="2">
-        <v>6.3800647022358303</v>
+        <v>6.0945386255762903</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>130</v>
@@ -13250,14 +13268,14 @@
         <v>133</v>
       </c>
       <c r="P88" s="2">
-        <v>1.42329493133759</v>
+        <v>1.42328736322696</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>132</v>
       </c>
       <c r="R88" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" t="b">
         <f t="shared" si="5"/>
@@ -13303,13 +13321,13 @@
         <v>41.777594049999998</v>
       </c>
       <c r="J89" s="5">
-        <v>41.7597358543374</v>
+        <v>41.759606680136201</v>
       </c>
       <c r="K89" s="2">
-        <v>41.789451214098399</v>
+        <v>41.789321958950602</v>
       </c>
       <c r="L89" s="2">
-        <v>29.121239916489401</v>
+        <v>29.121542059612398</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>129</v>
@@ -13321,7 +13339,7 @@
         <v>131</v>
       </c>
       <c r="P89" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>132</v>
@@ -13374,13 +13392,13 @@
         <v>14.99696209</v>
       </c>
       <c r="J90" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K90" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L90" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>130</v>
@@ -13392,7 +13410,7 @@
         <v>133</v>
       </c>
       <c r="P90" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>132</v>
@@ -13445,13 +13463,13 @@
         <v>14.99696209</v>
       </c>
       <c r="J91" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K91" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L91" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>130</v>
@@ -13463,7 +13481,7 @@
         <v>133</v>
       </c>
       <c r="P91" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>132</v>
@@ -13516,13 +13534,13 @@
         <v>41.777594049999998</v>
       </c>
       <c r="J92" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K92" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L92" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>130</v>
@@ -13534,7 +13552,7 @@
         <v>133</v>
       </c>
       <c r="P92" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>132</v>
@@ -13587,13 +13605,13 @@
         <v>14.99696209</v>
       </c>
       <c r="J93" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K93" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L93" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>130</v>
@@ -13605,7 +13623,7 @@
         <v>133</v>
       </c>
       <c r="P93" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q93" s="2" t="s">
         <v>132</v>
@@ -13658,13 +13676,13 @@
         <v>14.99696209</v>
       </c>
       <c r="J94" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K94" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L94" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>130</v>
@@ -13676,7 +13694,7 @@
         <v>133</v>
       </c>
       <c r="P94" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q94" s="2" t="s">
         <v>132</v>
@@ -13729,13 +13747,13 @@
         <v>41.777594049999998</v>
       </c>
       <c r="J95" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K95" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L95" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>130</v>
@@ -13747,7 +13765,7 @@
         <v>133</v>
       </c>
       <c r="P95" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>132</v>
@@ -13800,13 +13818,13 @@
         <v>14.99696209</v>
       </c>
       <c r="J96" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K96" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L96" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>130</v>
@@ -13818,7 +13836,7 @@
         <v>133</v>
       </c>
       <c r="P96" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q96" s="2" t="s">
         <v>132</v>
@@ -13871,13 +13889,13 @@
         <v>14.99696209</v>
       </c>
       <c r="J97" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K97" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L97" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>130</v>
@@ -13889,7 +13907,7 @@
         <v>133</v>
       </c>
       <c r="P97" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>132</v>
@@ -13942,13 +13960,13 @@
         <v>41.777594049999998</v>
       </c>
       <c r="J98" s="5">
-        <v>41.7597358543374</v>
+        <v>41.759606680136201</v>
       </c>
       <c r="K98" s="2">
-        <v>41.789451214098399</v>
+        <v>41.789321958950602</v>
       </c>
       <c r="L98" s="2">
-        <v>29.121239916489401</v>
+        <v>29.121542059612398</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>129</v>
@@ -13960,7 +13978,7 @@
         <v>131</v>
       </c>
       <c r="P98" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>132</v>
@@ -14013,13 +14031,13 @@
         <v>14.99696209</v>
       </c>
       <c r="J99" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K99" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L99" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M99" s="2" t="s">
         <v>130</v>
@@ -14031,7 +14049,7 @@
         <v>133</v>
       </c>
       <c r="P99" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>132</v>
@@ -14084,13 +14102,13 @@
         <v>14.99696209</v>
       </c>
       <c r="J100" s="5">
-        <v>14.990997475539499</v>
+        <v>14.9909387260378</v>
       </c>
       <c r="K100" s="2">
-        <v>14.997673134115701</v>
+        <v>14.997614366429101</v>
       </c>
       <c r="L100" s="2">
-        <v>8.9955161945492392</v>
+        <v>8.9956021007980507</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>130</v>
@@ -14102,7 +14120,7 @@
         <v>133</v>
       </c>
       <c r="P100" s="2">
-        <v>1.1908848181182501</v>
+        <v>1.1908687790177099</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>132</v>
@@ -14155,13 +14173,13 @@
         <v>51.205593989999997</v>
       </c>
       <c r="J101" s="5">
-        <v>51.195393069722101</v>
+        <v>51.195544741389703</v>
       </c>
       <c r="K101" s="2">
-        <v>51.222348651121003</v>
+        <v>51.222500413401001</v>
       </c>
       <c r="L101" s="2">
-        <v>38.942531937719302</v>
+        <v>38.943121102026197</v>
       </c>
       <c r="M101" s="2" t="s">
         <v>129</v>
@@ -14173,7 +14191,7 @@
         <v>131</v>
       </c>
       <c r="P101" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q101" s="2" t="s">
         <v>132</v>
@@ -14226,13 +14244,13 @@
         <v>16.754226450000001</v>
       </c>
       <c r="J102" s="5">
-        <v>16.7511617101915</v>
+        <v>16.751194290889099</v>
       </c>
       <c r="K102" s="2">
-        <v>16.756755326080299</v>
+        <v>16.756787925581101</v>
       </c>
       <c r="L102" s="2">
-        <v>10.965126250752</v>
+        <v>10.9652809873075</v>
       </c>
       <c r="M102" s="2" t="s">
         <v>130</v>
@@ -14244,7 +14262,7 @@
         <v>133</v>
       </c>
       <c r="P102" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q102" s="2" t="s">
         <v>132</v>
@@ -14297,13 +14315,13 @@
         <v>51.205593989999997</v>
       </c>
       <c r="J103" s="5">
-        <v>51.195393069722101</v>
+        <v>51.195544741389703</v>
       </c>
       <c r="K103" s="2">
-        <v>51.222348651121003</v>
+        <v>51.222500413401001</v>
       </c>
       <c r="L103" s="2">
-        <v>38.942531937719302</v>
+        <v>38.943121102026197</v>
       </c>
       <c r="M103" s="2" t="s">
         <v>129</v>
@@ -14315,7 +14333,7 @@
         <v>131</v>
       </c>
       <c r="P103" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>132</v>
@@ -14368,13 +14386,13 @@
         <v>16.754226450000001</v>
       </c>
       <c r="J104" s="5">
-        <v>16.7511617101915</v>
+        <v>16.751194290889099</v>
       </c>
       <c r="K104" s="2">
-        <v>16.756755326080299</v>
+        <v>16.756787925581101</v>
       </c>
       <c r="L104" s="2">
-        <v>10.965126250752</v>
+        <v>10.9652809873075</v>
       </c>
       <c r="M104" s="2" t="s">
         <v>130</v>
@@ -14386,7 +14404,7 @@
         <v>133</v>
       </c>
       <c r="P104" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>132</v>
@@ -14439,13 +14457,13 @@
         <v>16.754226450000001</v>
       </c>
       <c r="J105" s="5">
-        <v>16.7511617101915</v>
+        <v>16.751194290889099</v>
       </c>
       <c r="K105" s="2">
-        <v>16.756755326080299</v>
+        <v>16.756787925581101</v>
       </c>
       <c r="L105" s="2">
-        <v>10.965126250752</v>
+        <v>10.9652809873075</v>
       </c>
       <c r="M105" s="2" t="s">
         <v>130</v>
@@ -14457,7 +14475,7 @@
         <v>133</v>
       </c>
       <c r="P105" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q105" s="2" t="s">
         <v>132</v>
@@ -14510,13 +14528,13 @@
         <v>51.205593989999997</v>
       </c>
       <c r="J106" s="5">
-        <v>51.195393069722101</v>
+        <v>51.195544741389703</v>
       </c>
       <c r="K106" s="2">
-        <v>51.222348651121003</v>
+        <v>51.222500413401001</v>
       </c>
       <c r="L106" s="2">
-        <v>38.942531937719302</v>
+        <v>38.943121102026197</v>
       </c>
       <c r="M106" s="2" t="s">
         <v>129</v>
@@ -14528,7 +14546,7 @@
         <v>131</v>
       </c>
       <c r="P106" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>132</v>
@@ -14581,13 +14599,13 @@
         <v>16.754226450000001</v>
       </c>
       <c r="J107" s="5">
-        <v>16.7511617101915</v>
+        <v>16.751194290889099</v>
       </c>
       <c r="K107" s="2">
-        <v>16.756755326080299</v>
+        <v>16.756787925581101</v>
       </c>
       <c r="L107" s="2">
-        <v>10.965126250752</v>
+        <v>10.9652809873075</v>
       </c>
       <c r="M107" s="2" t="s">
         <v>130</v>
@@ -14599,7 +14617,7 @@
         <v>133</v>
       </c>
       <c r="P107" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>132</v>
@@ -14652,13 +14670,13 @@
         <v>51.205593989999997</v>
       </c>
       <c r="J108" s="5">
-        <v>51.195393069722101</v>
+        <v>51.195544741389703</v>
       </c>
       <c r="K108" s="2">
-        <v>51.222348651121003</v>
+        <v>51.222500413401001</v>
       </c>
       <c r="L108" s="2">
-        <v>38.942531937719302</v>
+        <v>38.943121102026197</v>
       </c>
       <c r="M108" s="2" t="s">
         <v>129</v>
@@ -14670,7 +14688,7 @@
         <v>131</v>
       </c>
       <c r="P108" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>132</v>
@@ -14723,13 +14741,13 @@
         <v>16.754226450000001</v>
       </c>
       <c r="J109" s="5">
-        <v>16.7511617101915</v>
+        <v>16.751194290889099</v>
       </c>
       <c r="K109" s="2">
-        <v>16.756755326080299</v>
+        <v>16.756787925581101</v>
       </c>
       <c r="L109" s="2">
-        <v>10.965126250752</v>
+        <v>10.9652809873075</v>
       </c>
       <c r="M109" s="2" t="s">
         <v>130</v>
@@ -14741,7 +14759,7 @@
         <v>133</v>
       </c>
       <c r="P109" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>132</v>
@@ -14794,13 +14812,13 @@
         <v>16.754226450000001</v>
       </c>
       <c r="J110" s="5">
-        <v>16.7511617101915</v>
+        <v>16.751194290889099</v>
       </c>
       <c r="K110" s="2">
-        <v>16.756755326080299</v>
+        <v>16.756787925581101</v>
       </c>
       <c r="L110" s="2">
-        <v>10.965126250752</v>
+        <v>10.9652809873075</v>
       </c>
       <c r="M110" s="2" t="s">
         <v>130</v>
@@ -14812,7 +14830,7 @@
         <v>133</v>
       </c>
       <c r="P110" s="2">
-        <v>1.09156161757639</v>
+        <v>1.09154833755855</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>132</v>
@@ -14865,13 +14883,13 @@
         <v>57.488084389999997</v>
       </c>
       <c r="J111" s="5">
-        <v>57.454212925696297</v>
+        <v>57.451216642056799</v>
       </c>
       <c r="K111" s="2">
-        <v>57.482664718278798</v>
+        <v>57.479666924035001</v>
       </c>
       <c r="L111" s="2">
-        <v>44.360639214205001</v>
+        <v>44.358826882465898</v>
       </c>
       <c r="M111" s="2" t="s">
         <v>129</v>
@@ -14883,7 +14901,7 @@
         <v>131</v>
       </c>
       <c r="P111" s="2">
-        <v>1.0753554737431801</v>
+        <v>1.07534332519834</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>132</v>
@@ -14936,13 +14954,13 @@
         <v>18.37383874</v>
       </c>
       <c r="J112" s="5">
-        <v>18.363729223026699</v>
+        <v>18.362817153109798</v>
       </c>
       <c r="K112" s="2">
-        <v>18.369536607290499</v>
+        <v>18.368624229039401</v>
       </c>
       <c r="L112" s="2">
-        <v>12.2016374092216</v>
+        <v>12.2011692177149</v>
       </c>
       <c r="M112" s="2" t="s">
         <v>130</v>
@@ -14954,7 +14972,7 @@
         <v>133</v>
       </c>
       <c r="P112" s="2">
-        <v>1.0753554737431801</v>
+        <v>1.07534332519834</v>
       </c>
       <c r="Q112" s="2" t="s">
         <v>132</v>
@@ -15007,13 +15025,13 @@
         <v>57.488084389999997</v>
       </c>
       <c r="J113" s="5">
-        <v>57.454212925696297</v>
+        <v>57.451216642056799</v>
       </c>
       <c r="K113" s="2">
-        <v>57.482664718278798</v>
+        <v>57.479666924035001</v>
       </c>
       <c r="L113" s="2">
-        <v>44.360639214205001</v>
+        <v>44.358826882465898</v>
       </c>
       <c r="M113" s="2" t="s">
         <v>129</v>
@@ -15025,7 +15043,7 @@
         <v>131</v>
       </c>
       <c r="P113" s="2">
-        <v>1.0753554737431801</v>
+        <v>1.07534332519834</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>132</v>
@@ -15078,13 +15096,13 @@
         <v>18.37383874</v>
       </c>
       <c r="J114" s="5">
-        <v>18.363729223026699</v>
+        <v>18.362817153109798</v>
       </c>
       <c r="K114" s="2">
-        <v>18.369536607290499</v>
+        <v>18.368624229039401</v>
       </c>
       <c r="L114" s="2">
-        <v>12.2016374092216</v>
+        <v>12.2011692177149</v>
       </c>
       <c r="M114" s="2" t="s">
         <v>130</v>
@@ -15096,7 +15114,7 @@
         <v>133</v>
       </c>
       <c r="P114" s="2">
-        <v>1.0753554737431801</v>
+        <v>1.07534332519834</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>132</v>
@@ -15149,13 +15167,13 @@
         <v>18.37383874</v>
       </c>
       <c r="J115" s="5">
-        <v>18.363729223026699</v>
+        <v>18.362817153109798</v>
       </c>
       <c r="K115" s="2">
-        <v>18.369536607290499</v>
+        <v>18.368624229039401</v>
       </c>
       <c r="L115" s="2">
-        <v>12.2016374092216</v>
+        <v>12.2011692177149</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>130</v>
@@ -15167,7 +15185,7 @@
         <v>133</v>
       </c>
       <c r="P115" s="2">
-        <v>1.0753554737431801</v>
+        <v>1.07534332519834</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>132</v>
@@ -15220,13 +15238,13 @@
         <v>57.488084389999997</v>
       </c>
       <c r="J116" s="5">
-        <v>57.454212925696297</v>
+        <v>57.451216642056799</v>
       </c>
       <c r="K116" s="2">
-        <v>57.482664718278798</v>
+        <v>57.479666924035001</v>
       </c>
       <c r="L116" s="2">
-        <v>44.360639214205001</v>
+        <v>44.358826882465898</v>
       </c>
       <c r="M116" s="2" t="s">
         <v>129</v>
@@ -15238,7 +15256,7 @@
         <v>131</v>
       </c>
       <c r="P116" s="2">
-        <v>1.0753554737431801</v>
+        <v>1.07534332519834</v>
       </c>
       <c r="Q116" s="2" t="s">
         <v>132</v>
@@ -15291,13 +15309,13 @@
         <v>18.37383874</v>
       </c>
       <c r="J117" s="6">
-        <v>18.363729223026699</v>
+        <v>18.362817153109798</v>
       </c>
       <c r="K117" s="2">
-        <v>18.369536607290499</v>
+        <v>18.368624229039401</v>
       </c>
       <c r="L117" s="2">
-        <v>12.2016374092216</v>
+        <v>12.2011692177149</v>
       </c>
       <c r="M117" s="2" t="s">
         <v>130</v>
@@ -15309,7 +15327,7 @@
         <v>133</v>
       </c>
       <c r="P117" s="2">
-        <v>1.0753554737431801</v>
+        <v>1.07534332519834</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>132</v>
@@ -15333,33 +15351,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U118" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U119" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U120" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U121" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U122" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:M2"/>
@@ -15367,12 +15366,6 @@
     <mergeCell ref="P1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="R3:R117 T3:T117 U4:U118">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -15415,33 +15408,33 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" t="s">
-        <v>151</v>
-      </c>
       <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" t="s">
         <v>146</v>
-      </c>
-      <c r="M1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
         <v>152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>154</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -15455,13 +15448,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
         <v>155</v>
-      </c>
-      <c r="B3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" t="s">
-        <v>157</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -15475,13 +15468,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>160</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -15495,13 +15488,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
         <v>161</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -15515,13 +15508,13 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
         <v>164</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
       </c>
       <c r="L6">
         <v>4</v>
